--- a/Mifos Automation Excels/Client/2496-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2496-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -121,44 +118,47 @@
     <t>$ 950</t>
   </si>
   <si>
+    <t>$ 40.5</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Interest Receivable(3)</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>L34</t>
+  </si>
+  <si>
+    <t>L37</t>
+  </si>
+  <si>
+    <t>Accrual</t>
+  </si>
+  <si>
+    <t>$ 1,000</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
     <t>$ 863.23</t>
   </si>
   <si>
     <t>$ 822.73</t>
   </si>
   <si>
-    <t>$ 40.5</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>Interest Receivable(3)</t>
-  </si>
-  <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>L34</t>
-  </si>
-  <si>
-    <t>L37</t>
-  </si>
-  <si>
-    <t>Accrual</t>
-  </si>
-  <si>
     <t>$ 82.27</t>
-  </si>
-  <si>
-    <t>$ 1,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,9 +236,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,6 +285,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,18 +605,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>42064</v>
       </c>
     </row>
@@ -617,293 +630,295 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2583</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="3">
+        <v>577</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42095</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3">
         <v>82.27</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>82.27</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2582</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="3">
+        <v>576</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>42064</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>863.23</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>822.73</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>40.5</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>8227.27</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2580</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="3">
+        <v>381</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
         <v>42064</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
         <v>40.5</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>40.5</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2578</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="3">
+        <v>376</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
         <v>42064</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>5000</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>9050</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2579</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="3">
+        <v>380</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
         <v>42036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2577</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="3">
+        <v>375</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
         <v>42036</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>950</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>4050</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2576</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="3">
+        <v>374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
         <v>42005</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>5000</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>5000</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,86 +947,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>154</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1041,114 +1056,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42050</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>32</v>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>152</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>42050</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>154</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
         <v>42050</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="H4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,86 +1192,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42064</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>154</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>42064</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1269,135 +1284,136 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
         <v>42064</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>152</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="H3" s="16"/>
+      <c r="I3" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>154</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="17"/>
+      <c r="H4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1406,233 +1422,233 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42036</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42095</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="H9" s="20"/>
+      <c r="I9" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>42095</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
